--- a/SchedulingData/dynamic10/pso/scheduling2_5.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,306 +462,306 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>209.26</v>
+        <v>231.54</v>
       </c>
       <c r="D2" t="n">
-        <v>267.6</v>
+        <v>297.14</v>
       </c>
       <c r="E2" t="n">
-        <v>14.24</v>
+        <v>10.976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>223.16</v>
+        <v>246.32</v>
       </c>
       <c r="D3" t="n">
-        <v>277.46</v>
+        <v>288.42</v>
       </c>
       <c r="E3" t="n">
-        <v>14.384</v>
+        <v>15.788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>254.64</v>
+        <v>201.8</v>
       </c>
       <c r="D4" t="n">
-        <v>303.96</v>
+        <v>264.6</v>
       </c>
       <c r="E4" t="n">
-        <v>13.204</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>277.46</v>
+        <v>288.42</v>
       </c>
       <c r="D5" t="n">
-        <v>356.42</v>
+        <v>329.88</v>
       </c>
       <c r="E5" t="n">
-        <v>11.108</v>
+        <v>12.772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>237.06</v>
+        <v>214.32</v>
       </c>
       <c r="D6" t="n">
-        <v>302.36</v>
+        <v>273.64</v>
       </c>
       <c r="E6" t="n">
-        <v>14.904</v>
+        <v>14.776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>303.96</v>
+        <v>329.88</v>
       </c>
       <c r="D7" t="n">
-        <v>362.62</v>
+        <v>359.6</v>
       </c>
       <c r="E7" t="n">
-        <v>10.448</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>235.64</v>
+        <v>273.64</v>
       </c>
       <c r="D8" t="n">
-        <v>296.14</v>
+        <v>319.32</v>
       </c>
       <c r="E8" t="n">
-        <v>11.996</v>
+        <v>12.328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>267.6</v>
+        <v>210.66</v>
       </c>
       <c r="D9" t="n">
-        <v>306.4</v>
+        <v>272</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>211.14</v>
+        <v>264.6</v>
       </c>
       <c r="D10" t="n">
-        <v>296.34</v>
+        <v>303.98</v>
       </c>
       <c r="E10" t="n">
-        <v>11.016</v>
+        <v>9.772</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>356.42</v>
+        <v>297.14</v>
       </c>
       <c r="D11" t="n">
-        <v>400.7</v>
+        <v>339.74</v>
       </c>
       <c r="E11" t="n">
-        <v>8.300000000000001</v>
+        <v>8.336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>296.34</v>
+        <v>359.6</v>
       </c>
       <c r="D12" t="n">
-        <v>347.7</v>
+        <v>403.98</v>
       </c>
       <c r="E12" t="n">
-        <v>8.52</v>
+        <v>7.632</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>400.7</v>
+        <v>221.1</v>
       </c>
       <c r="D13" t="n">
-        <v>438.62</v>
+        <v>252.46</v>
       </c>
       <c r="E13" t="n">
-        <v>5.648</v>
+        <v>14.944</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>302.36</v>
+        <v>252.46</v>
       </c>
       <c r="D14" t="n">
-        <v>346.88</v>
+        <v>286.06</v>
       </c>
       <c r="E14" t="n">
-        <v>12.572</v>
+        <v>12.224</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>306.4</v>
+        <v>286.06</v>
       </c>
       <c r="D15" t="n">
-        <v>348.3</v>
+        <v>368.9</v>
       </c>
       <c r="E15" t="n">
-        <v>8.92</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>348.3</v>
+        <v>339.74</v>
       </c>
       <c r="D16" t="n">
-        <v>385.52</v>
+        <v>377.14</v>
       </c>
       <c r="E16" t="n">
-        <v>6.328</v>
+        <v>6.216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>438.62</v>
+        <v>272</v>
       </c>
       <c r="D17" t="n">
-        <v>491.64</v>
+        <v>329.46</v>
       </c>
       <c r="E17" t="n">
-        <v>2.456</v>
+        <v>11.644</v>
       </c>
     </row>
     <row r="18">
@@ -770,150 +770,150 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>346.88</v>
+        <v>377.14</v>
       </c>
       <c r="D18" t="n">
-        <v>408.98</v>
+        <v>452</v>
       </c>
       <c r="E18" t="n">
-        <v>10.452</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>408.98</v>
+        <v>329.46</v>
       </c>
       <c r="D19" t="n">
-        <v>451.58</v>
+        <v>377.78</v>
       </c>
       <c r="E19" t="n">
-        <v>7.812</v>
+        <v>8.432</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>296.14</v>
+        <v>303.98</v>
       </c>
       <c r="D20" t="n">
-        <v>329.58</v>
+        <v>362.68</v>
       </c>
       <c r="E20" t="n">
-        <v>9.292</v>
+        <v>6.532</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>362.62</v>
+        <v>403.98</v>
       </c>
       <c r="D21" t="n">
-        <v>414.08</v>
+        <v>464.28</v>
       </c>
       <c r="E21" t="n">
-        <v>7.412</v>
+        <v>5.212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>385.52</v>
+        <v>377.78</v>
       </c>
       <c r="D22" t="n">
-        <v>424.9</v>
+        <v>425.38</v>
       </c>
       <c r="E22" t="n">
-        <v>3.52</v>
+        <v>6.272</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>414.08</v>
+        <v>368.9</v>
       </c>
       <c r="D23" t="n">
-        <v>476.58</v>
+        <v>421.12</v>
       </c>
       <c r="E23" t="n">
-        <v>5.252</v>
+        <v>6.928</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>329.58</v>
+        <v>319.32</v>
       </c>
       <c r="D24" t="n">
-        <v>373.88</v>
+        <v>373.42</v>
       </c>
       <c r="E24" t="n">
-        <v>5.992</v>
+        <v>9.028</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>373.88</v>
+        <v>362.68</v>
       </c>
       <c r="D25" t="n">
-        <v>434.36</v>
+        <v>419.12</v>
       </c>
       <c r="E25" t="n">
-        <v>3.544</v>
+        <v>3.508</v>
       </c>
     </row>
     <row r="26">
@@ -922,55 +922,74 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>347.7</v>
+        <v>373.42</v>
       </c>
       <c r="D26" t="n">
-        <v>420.2</v>
+        <v>427.48</v>
       </c>
       <c r="E26" t="n">
-        <v>5.88</v>
+        <v>5.752</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>451.58</v>
+        <v>421.12</v>
       </c>
       <c r="D27" t="n">
-        <v>511.64</v>
+        <v>480.32</v>
       </c>
       <c r="E27" t="n">
-        <v>5.436</v>
+        <v>3.628</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>420.2</v>
+        <v>425.38</v>
       </c>
       <c r="D28" t="n">
-        <v>496.64</v>
+        <v>479.14</v>
       </c>
       <c r="E28" t="n">
-        <v>2.856</v>
+        <v>3.516</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>pond19</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>464.28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>521.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.56</v>
       </c>
     </row>
   </sheetData>
